--- a/Application/JustR/PackerReports (03 Oct 2016).xlsx
+++ b/Application/JustR/PackerReports (03 Oct 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="155">
   <si>
     <t>Doorstep Chef Packer Sheet</t>
   </si>
@@ -118,6 +118,15 @@
     <t>dbjfcad</t>
   </si>
   <si>
+    <t>Stefan Salvatore</t>
+  </si>
+  <si>
+    <t>Cashews</t>
+  </si>
+  <si>
+    <t>Damon Salvatore</t>
+  </si>
+  <si>
     <t>Dane Left</t>
   </si>
   <si>
@@ -157,6 +166,15 @@
     <t>James Potter</t>
   </si>
   <si>
+    <t>Edward  Cullen</t>
+  </si>
+  <si>
+    <t>Human blood</t>
+  </si>
+  <si>
+    <t>Rabbit blood</t>
+  </si>
+  <si>
     <t>Michael Jackson</t>
   </si>
   <si>
@@ -217,12 +235,6 @@
     <t>no grapes</t>
   </si>
   <si>
-    <t>Afro Jack</t>
-  </si>
-  <si>
-    <t>Jalapenoes</t>
-  </si>
-  <si>
     <t>George Washington</t>
   </si>
   <si>
@@ -235,235 +247,238 @@
     <t>Peanuts</t>
   </si>
   <si>
+    <t>Alice Cullen</t>
+  </si>
+  <si>
     <t>Robin Hood</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Clients: 33</t>
-  </si>
-  <si>
-    <t>Standard: 48</t>
-  </si>
-  <si>
-    <t>Low Carb:  36</t>
+    <t>Clients: 36</t>
+  </si>
+  <si>
+    <t>Standard: 52</t>
+  </si>
+  <si>
+    <t>Low Carb:  37</t>
   </si>
   <si>
     <t>Kiddies: 5</t>
   </si>
   <si>
-    <t>Single: 36</t>
+    <t>Single: 39</t>
+  </si>
+  <si>
+    <t>Couple:  4</t>
+  </si>
+  <si>
+    <t>Small(3): 1</t>
+  </si>
+  <si>
+    <t>Medium(4): 3</t>
+  </si>
+  <si>
+    <t>Large(5):  2</t>
+  </si>
+  <si>
+    <t>XLarge(6): 0</t>
+  </si>
+  <si>
+    <t>Fri Oct 2016 10:14:20</t>
+  </si>
+  <si>
+    <t>Michael - 012 345 6789</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Week: 9 Route: 1</t>
+  </si>
+  <si>
+    <t>Rossouw Binedell</t>
+  </si>
+  <si>
+    <t>Just one cause I'm a loner</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>Christiaan Barnard</t>
+  </si>
+  <si>
+    <t>Chloe Sullivan</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>Florence NightingGale</t>
+  </si>
+  <si>
+    <t>No Salt</t>
+  </si>
+  <si>
+    <t>White Shadow</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>James Earl Jones</t>
+  </si>
+  <si>
+    <t>No nuts</t>
+  </si>
+  <si>
+    <t>No green foods.</t>
+  </si>
+  <si>
+    <t>Lone Ranger</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Adam Lavine</t>
+  </si>
+  <si>
+    <t>Leave the tomatoes</t>
+  </si>
+  <si>
+    <t>Amanda Bynes</t>
+  </si>
+  <si>
+    <t>Harison Ford</t>
+  </si>
+  <si>
+    <t>Kendral Jennar</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>No cheese</t>
+  </si>
+  <si>
+    <t>Clients: 17</t>
+  </si>
+  <si>
+    <t>Standard: 19</t>
+  </si>
+  <si>
+    <t>Low Carb:  44</t>
+  </si>
+  <si>
+    <t>Kiddies: 8</t>
+  </si>
+  <si>
+    <t>Single: 19</t>
+  </si>
+  <si>
+    <t>Small(3): 2</t>
+  </si>
+  <si>
+    <t>Medium(4): 0</t>
+  </si>
+  <si>
+    <t>Large(5):  1</t>
+  </si>
+  <si>
+    <t>Keanu - 987 654 3210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Week: 9 Route: 2</t>
+  </si>
+  <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>no rabbit</t>
+  </si>
+  <si>
+    <t>Charlie Sheen</t>
+  </si>
+  <si>
+    <t>King Kong</t>
+  </si>
+  <si>
+    <t>Astrix Oblix</t>
+  </si>
+  <si>
+    <t>Just boar</t>
+  </si>
+  <si>
+    <t>Billy Joel</t>
+  </si>
+  <si>
+    <t>Oysters</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Raisens</t>
+  </si>
+  <si>
+    <t>Sydney White</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Rita Ora</t>
+  </si>
+  <si>
+    <t>No Cocaine</t>
+  </si>
+  <si>
+    <t>Ellen TheGenarous</t>
+  </si>
+  <si>
+    <t>Absolutely no nuts</t>
+  </si>
+  <si>
+    <t>No Green Things</t>
+  </si>
+  <si>
+    <t>Albert Van Dame</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Extra sweet</t>
+  </si>
+  <si>
+    <t>Clients: 12</t>
+  </si>
+  <si>
+    <t>Standard: 17</t>
+  </si>
+  <si>
+    <t>Low Carb:  11</t>
+  </si>
+  <si>
+    <t>Kiddies: 25</t>
+  </si>
+  <si>
+    <t>Single: 9</t>
   </si>
   <si>
     <t>Couple:  5</t>
   </si>
   <si>
-    <t>Small(3): 2</t>
-  </si>
-  <si>
-    <t>Medium(4): 3</t>
-  </si>
-  <si>
-    <t>Large(5):  2</t>
-  </si>
-  <si>
-    <t>XLarge(6): 0</t>
-  </si>
-  <si>
-    <t>Michael - 012 345 6789</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Week: 9 Route: 1</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Rossouw Binedell</t>
-  </si>
-  <si>
-    <t>Just one cause I'm a loner</t>
-  </si>
-  <si>
-    <t>Alan Walker</t>
-  </si>
-  <si>
-    <t>Christiaan Barnard</t>
-  </si>
-  <si>
-    <t>Chloe Sullivan</t>
-  </si>
-  <si>
-    <t>Hermione Granger</t>
-  </si>
-  <si>
-    <t>Florence NightingGale</t>
-  </si>
-  <si>
-    <t>No Salt</t>
-  </si>
-  <si>
-    <t>White Shadow</t>
-  </si>
-  <si>
-    <t>Leonardo DiCaprio</t>
-  </si>
-  <si>
-    <t>James Earl Jones</t>
-  </si>
-  <si>
-    <t>No nuts</t>
-  </si>
-  <si>
-    <t>No green foods.</t>
-  </si>
-  <si>
-    <t>Lone Ranger</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Adam Lavine</t>
-  </si>
-  <si>
-    <t>Leave the tomatoes</t>
-  </si>
-  <si>
-    <t>Amanda Bynes</t>
-  </si>
-  <si>
-    <t>Harison Ford</t>
-  </si>
-  <si>
-    <t>Kendral Jennar</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>No cheese</t>
-  </si>
-  <si>
-    <t>Clients: 18</t>
-  </si>
-  <si>
-    <t>Standard: 20</t>
-  </si>
-  <si>
-    <t>Low Carb:  39</t>
-  </si>
-  <si>
-    <t>Kiddies: 13</t>
-  </si>
-  <si>
-    <t>Single: 20</t>
-  </si>
-  <si>
-    <t>Couple:  4</t>
-  </si>
-  <si>
-    <t>Medium(4): 0</t>
-  </si>
-  <si>
-    <t>Large(5):  1</t>
-  </si>
-  <si>
-    <t>Keanu - 987 654 3210</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Week: 9 Route: 2</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>no rabbit</t>
-  </si>
-  <si>
-    <t>Charlie Sheen</t>
-  </si>
-  <si>
-    <t>King Kong</t>
-  </si>
-  <si>
-    <t>Astrix Oblix</t>
-  </si>
-  <si>
-    <t>Just boar</t>
-  </si>
-  <si>
-    <t>Billy Joel</t>
-  </si>
-  <si>
-    <t>Oysters</t>
-  </si>
-  <si>
-    <t>Tomato</t>
-  </si>
-  <si>
-    <t>Raisens</t>
-  </si>
-  <si>
-    <t>Sydney White</t>
-  </si>
-  <si>
-    <t>Grapes</t>
-  </si>
-  <si>
-    <t>Indianah Jones</t>
-  </si>
-  <si>
-    <t>no snakes</t>
-  </si>
-  <si>
-    <t>Rita Ora</t>
-  </si>
-  <si>
-    <t>No Cocaine</t>
-  </si>
-  <si>
-    <t>Ellen TheGenarous</t>
-  </si>
-  <si>
-    <t>Absolutely no nuts</t>
-  </si>
-  <si>
-    <t>No Green Things</t>
-  </si>
-  <si>
-    <t>Albert Van Dame</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Extra sweet</t>
-  </si>
-  <si>
-    <t>Clients: 12</t>
-  </si>
-  <si>
-    <t>Standard: 18</t>
-  </si>
-  <si>
-    <t>Low Carb:  7</t>
-  </si>
-  <si>
-    <t>Kiddies: 24</t>
-  </si>
-  <si>
-    <t>Single: 11</t>
-  </si>
-  <si>
-    <t>Small(3): 1</t>
+    <t>Medium(4): 1</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="673">
+  <cellXfs count="682">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1203,6 +1218,34 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
@@ -1904,6 +1947,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1945,20 +1991,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
@@ -2366,6 +2398,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2674,6 +2709,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="29" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="30" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -3059,16 +3097,16 @@
         <v>34</v>
       </c>
       <c r="B19" t="s" s="110">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s" s="111">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="112">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s" s="113">
         <v>35</v>
-      </c>
-      <c r="C19" t="s" s="111">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s" s="112">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s" s="113">
-        <v>36</v>
       </c>
       <c r="F19" t="s" s="114">
         <v>18</v>
@@ -3076,10 +3114,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="115">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="116">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s" s="117">
         <v>12</v>
@@ -3088,7 +3126,7 @@
         <v>11</v>
       </c>
       <c r="E20" t="s" s="119">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s" s="120">
         <v>18</v>
@@ -3096,39 +3134,39 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="121">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="122">
         <v>38</v>
       </c>
-      <c r="B21" t="s" s="122">
-        <v>35</v>
-      </c>
       <c r="C21" t="s" s="123">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s" s="124">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s" s="125">
         <v>39</v>
       </c>
       <c r="F21" t="s" s="126">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="127">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s" s="128">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s" s="129">
         <v>12</v>
       </c>
       <c r="D22" t="s" s="130">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s" s="131">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="132">
         <v>18</v>
@@ -3136,39 +3174,39 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="133">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s" s="134">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s" s="135">
         <v>12</v>
       </c>
       <c r="D23" t="s" s="136">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s" s="137">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s" s="138">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="139">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s" s="140">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s" s="141">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s" s="142">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s" s="143">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s" s="144">
         <v>18</v>
@@ -3176,10 +3214,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="145">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s" s="146">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s" s="147">
         <v>12</v>
@@ -3188,7 +3226,7 @@
         <v>11</v>
       </c>
       <c r="E25" t="s" s="149">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s" s="150">
         <v>18</v>
@@ -3216,19 +3254,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="157">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s" s="158">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s" s="159">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s" s="160">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s" s="161">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s" s="162">
         <v>18</v>
@@ -3236,10 +3274,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="163">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s" s="164">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s" s="165">
         <v>16</v>
@@ -3256,16 +3294,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="169">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s" s="170">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s" s="171">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s" s="172">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s" s="173">
         <v>18</v>
@@ -3276,30 +3314,30 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="175">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s" s="176">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s" s="177">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s" s="178">
         <v>11</v>
       </c>
       <c r="E30" t="s" s="179">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s" s="180">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="181">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s" s="182">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s" s="183">
         <v>12</v>
@@ -3316,10 +3354,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="187">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s" s="188">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s" s="189">
         <v>16</v>
@@ -3342,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s" s="195">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s" s="196">
         <v>11</v>
@@ -3356,16 +3394,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="199">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s" s="200">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s" s="201">
         <v>12</v>
       </c>
       <c r="D34" t="s" s="202">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s" s="203">
         <v>18</v>
@@ -3376,16 +3414,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="205">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s" s="206">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s" s="207">
         <v>12</v>
       </c>
       <c r="D35" t="s" s="208">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s" s="209">
         <v>18</v>
@@ -3396,16 +3434,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="211">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s" s="212">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s" s="213">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s" s="214">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s" s="215">
         <v>18</v>
@@ -3416,16 +3454,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="217">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s" s="218">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s" s="219">
         <v>55</v>
       </c>
-      <c r="B37" t="s" s="218">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s" s="219">
-        <v>12</v>
-      </c>
       <c r="D37" t="s" s="220">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s" s="221">
         <v>18</v>
@@ -3436,16 +3474,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="223">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s" s="224">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s" s="225">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s" s="226">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s" s="227">
         <v>18</v>
@@ -3456,19 +3494,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="229">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s" s="230">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s" s="231">
         <v>12</v>
       </c>
       <c r="D39" t="s" s="232">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s" s="233">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s" s="234">
         <v>18</v>
@@ -3476,16 +3514,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="235">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s" s="236">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s" s="237">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s" s="238">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s" s="239">
         <v>18</v>
@@ -3496,19 +3534,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="241">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s" s="242">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s" s="243">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s" s="244">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s" s="245">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s" s="246">
         <v>18</v>
@@ -3522,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s" s="249">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s" s="250">
         <v>11</v>
@@ -3531,24 +3569,24 @@
         <v>18</v>
       </c>
       <c r="F42" t="s" s="252">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="253">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s" s="254">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s" s="255">
         <v>12</v>
       </c>
       <c r="D43" t="s" s="256">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s" s="257">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F43" t="s" s="258">
         <v>18</v>
@@ -3562,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s" s="261">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s" s="262">
         <v>11</v>
@@ -3571,24 +3609,24 @@
         <v>18</v>
       </c>
       <c r="F44" t="s" s="264">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="265">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s" s="266">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s" s="267">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s" s="268">
         <v>11</v>
       </c>
       <c r="E45" t="s" s="269">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F45" t="s" s="270">
         <v>18</v>
@@ -3602,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s" s="273">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s" s="274">
         <v>11</v>
@@ -3611,15 +3649,15 @@
         <v>18</v>
       </c>
       <c r="F46" t="s" s="276">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="277">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s" s="278">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s" s="279">
         <v>12</v>
@@ -3628,7 +3666,7 @@
         <v>11</v>
       </c>
       <c r="E47" t="s" s="281">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F47" t="s" s="282">
         <v>18</v>
@@ -3645,13 +3683,13 @@
         <v>12</v>
       </c>
       <c r="D48" t="s" s="286">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s" s="287">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s" s="288">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -3662,13 +3700,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="s" s="291">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s" s="292">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s" s="293">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="F49" t="s" s="294">
         <v>18</v>
@@ -3676,111 +3714,157 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="295">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s" s="296">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s" s="297">
         <v>16</v>
       </c>
       <c r="D50" t="s" s="298">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s" s="299">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s" s="300">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="301">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s" s="302">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s" s="303">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s" s="304">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s" s="305">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="306">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="307">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s" s="308">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s" s="309">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s" s="310">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s" s="311">
         <v>18</v>
       </c>
       <c r="F52" t="s" s="312">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="313">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s" s="314">
-        <v>76</v>
-      </c>
-      <c r="E53" t="s" s="315">
-        <v>77</v>
-      </c>
-      <c r="F53" t="s" s="316">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s" s="315">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s" s="316">
+        <v>74</v>
+      </c>
+      <c r="E53" t="s" s="317">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s" s="318">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="319">
         <v>78</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="317"/>
-      <c r="B54" t="s" s="318">
+      <c r="B54" t="s" s="320">
         <v>79</v>
       </c>
-      <c r="E54" t="s" s="319">
+      <c r="C54" t="s" s="321">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s" s="322">
+        <v>79</v>
+      </c>
+      <c r="E54" t="s" s="323">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s" s="324">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="325">
         <v>80</v>
       </c>
-      <c r="F54" t="s" s="320">
+      <c r="B55" t="s" s="326">
         <v>81</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="321"/>
-      <c r="B55" t="s" s="322">
+      <c r="E55" t="s" s="327">
         <v>82</v>
       </c>
-      <c r="C55" s="323"/>
-      <c r="D55" s="324"/>
-      <c r="E55" t="s" s="325">
+      <c r="F55" t="s" s="328">
         <v>83</v>
       </c>
-      <c r="F55" t="s" s="326">
+    </row>
+    <row r="56">
+      <c r="A56" s="329"/>
+      <c r="B56" t="s" s="330">
         <v>84</v>
+      </c>
+      <c r="E56" t="s" s="331">
+        <v>85</v>
+      </c>
+      <c r="F56" t="s" s="332">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="333"/>
+      <c r="B57" t="s" s="334">
+        <v>87</v>
+      </c>
+      <c r="C57" s="335"/>
+      <c r="D57" s="336"/>
+      <c r="E57" t="s" s="337">
+        <v>88</v>
+      </c>
+      <c r="F57" t="s" s="338">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="339">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A59:F59"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3803,692 +3887,678 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="327">
+      <c r="A1" t="s" s="340">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="328">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="329">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="330">
+      <c r="B1" t="s" s="341">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="342">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="343">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s" s="344">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="345">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="346">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="347">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="348">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="349">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="350">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="352">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="353">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="354">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="355">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="356">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="357">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="358">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s" s="359">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="360">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="361">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="362">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s" s="363">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="364">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="365">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="366">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="367">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="368">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="369">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="370">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s" s="371">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="372">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="373">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s" s="374">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="375">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="376">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s" s="377">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="378">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="379">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s" s="380">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="381">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="382">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s" s="383">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="384">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="385">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s" s="386">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s" s="387">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="388">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s" s="389">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="390">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s" s="391">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s" s="392">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s" s="393">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="394">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s" s="395">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="396">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s" s="397">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s" s="398">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s" s="399">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="400">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s" s="401">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="402">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s" s="403">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s" s="404">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="405">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="406">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s" s="407">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s" s="408">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="409">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s" s="410">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s" s="411">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="412">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s" s="413">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="414">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s" s="415">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s" s="416">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s" s="417">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="418">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s" s="419">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s" s="420">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="421">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s" s="422">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s" s="423">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="424">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s" s="425">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="426">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s" s="427">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s" s="428">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="429">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="430">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s" s="431">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s" s="432">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s" s="433">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s" s="434">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s" s="435">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="436">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s" s="437">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s" s="438">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s" s="439">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s" s="440">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s" s="441">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="442">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s" s="443">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s" s="444">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s" s="445">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s" s="446">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s" s="447">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="448">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s" s="449">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="450">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="451">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s" s="452">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="453">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="454">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s" s="455">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="456">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="457">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s" s="458">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s" s="459">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="460">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s" s="461">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s" s="462">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s" s="463">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s" s="464">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s" s="465">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="466">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s" s="467">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s" s="468">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s" s="469">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s" s="470">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s" s="471">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="472">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s" s="473">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s" s="474">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s" s="475">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s" s="476">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s" s="477">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="478">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s" s="479">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s" s="480">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s" s="481">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s" s="482">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s" s="483">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="484">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s" s="485">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s" s="486">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s" s="487">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s" s="488">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s" s="489">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="490">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s" s="491">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s" s="492">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s" s="493">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s" s="494">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s" s="495">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="496">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s" s="497">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s" s="498">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s" s="499">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s" s="500">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s" s="501">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="502">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s" s="503">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s" s="504">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s" s="505">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s" s="506">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s" s="507">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="508">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s" s="509">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s" s="510">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s" s="511">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s" s="512">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s" s="513">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="514">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s" s="515">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s" s="516">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s" s="517">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s" s="518">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s" s="519">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="520">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s" s="521">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s" s="522">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s" s="523">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s" s="524">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s" s="525">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="526">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s" s="527">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s" s="528">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s" s="529">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="530"/>
+      <c r="B33" t="s" s="531">
+        <v>120</v>
+      </c>
+      <c r="E33" t="s" s="532">
         <v>85</v>
       </c>
-      <c r="E1" t="s" s="331">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="332">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="333">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="334">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="335">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="336">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="337">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="339">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="340">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="341">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="342">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s" s="343">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s" s="344">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="345">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s" s="346">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="347">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s" s="348">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="349">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s" s="350">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="351">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s" s="352">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="353">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="354">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s" s="355">
+      <c r="F33" t="s" s="533">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="534"/>
+      <c r="B34" t="s" s="535">
+        <v>122</v>
+      </c>
+      <c r="C34" s="536"/>
+      <c r="D34" s="537"/>
+      <c r="E34" t="s" s="538">
+        <v>123</v>
+      </c>
+      <c r="F34" t="s" s="539">
         <v>89</v>
       </c>
-      <c r="F5" t="s" s="356">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="357">
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="540">
         <v>90</v>
-      </c>
-      <c r="B6" t="s" s="358">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s" s="359">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="360">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s" s="361">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s" s="362">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="363">
-        <v>91</v>
-      </c>
-      <c r="B7" t="s" s="364">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s" s="365">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s" s="366">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s" s="367">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s" s="368">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="369">
-        <v>92</v>
-      </c>
-      <c r="B8" t="s" s="370">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s" s="371">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s" s="372">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s" s="373">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s" s="374">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="375">
-        <v>93</v>
-      </c>
-      <c r="B9" t="s" s="376">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s" s="377">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s" s="378">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s" s="379">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s" s="380">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="381">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s" s="382">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s" s="383">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s" s="384">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s" s="385">
-        <v>95</v>
-      </c>
-      <c r="F10" t="s" s="386">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="387">
-        <v>96</v>
-      </c>
-      <c r="B11" t="s" s="388">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s" s="389">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s" s="390">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s" s="391">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s" s="392">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="393">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s" s="394">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s" s="395">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s" s="396">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s" s="397">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s" s="398">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="399">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s" s="400">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s" s="401">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s" s="402">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s" s="403">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s" s="404">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="405">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s" s="406">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s" s="407">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s" s="408">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s" s="409">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s" s="410">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="411">
-        <v>97</v>
-      </c>
-      <c r="B15" t="s" s="412">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s" s="413">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s" s="414">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s" s="415">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="416">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="417">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s" s="418">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s" s="419">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s" s="420">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s" s="421">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s" s="422">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="423">
-        <v>98</v>
-      </c>
-      <c r="B17" t="s" s="424">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s" s="425">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s" s="426">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s" s="427">
-        <v>99</v>
-      </c>
-      <c r="F17" t="s" s="428">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="429">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s" s="430">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s" s="431">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s" s="432">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s" s="433">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s" s="434">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="435">
-        <v>101</v>
-      </c>
-      <c r="B19" t="s" s="436">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s" s="437">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s" s="438">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s" s="439">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s" s="440">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="441">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s" s="442">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s" s="443">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s" s="444">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s" s="445">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s" s="446">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="447">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s" s="448">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s" s="449">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s" s="450">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s" s="451">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s" s="452">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="453">
-        <v>102</v>
-      </c>
-      <c r="B22" t="s" s="454">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s" s="455">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s" s="456">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s" s="457">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s" s="458">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="459">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s" s="460">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s" s="461">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s" s="462">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s" s="463">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s" s="464">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="465">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s" s="466">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s" s="467">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s" s="468">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s" s="469">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s" s="470">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="471">
-        <v>103</v>
-      </c>
-      <c r="B25" t="s" s="472">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s" s="473">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s" s="474">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s" s="475">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s" s="476">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="477">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s" s="478">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s" s="479">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s" s="480">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s" s="481">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s" s="482">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="483">
-        <v>105</v>
-      </c>
-      <c r="B27" t="s" s="484">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s" s="485">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s" s="486">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s" s="487">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s" s="488">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="489">
-        <v>106</v>
-      </c>
-      <c r="B28" t="s" s="490">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s" s="491">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s" s="492">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s" s="493">
-        <v>18</v>
-      </c>
-      <c r="F28" t="s" s="494">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="495">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s" s="496">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s" s="497">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s" s="498">
-        <v>56</v>
-      </c>
-      <c r="E29" t="s" s="499">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s" s="500">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="501">
-        <v>107</v>
-      </c>
-      <c r="B30" t="s" s="502">
-        <v>108</v>
-      </c>
-      <c r="C30" t="s" s="503">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s" s="504">
-        <v>70</v>
-      </c>
-      <c r="E30" t="s" s="505">
-        <v>18</v>
-      </c>
-      <c r="F30" t="s" s="506">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="507">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s" s="508">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s" s="509">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s" s="510">
-        <v>48</v>
-      </c>
-      <c r="E31" t="s" s="511">
-        <v>18</v>
-      </c>
-      <c r="F31" t="s" s="512">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="513">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s" s="514">
-        <v>109</v>
-      </c>
-      <c r="C32" t="s" s="515">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s" s="516">
-        <v>109</v>
-      </c>
-      <c r="E32" t="s" s="517">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s" s="518">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="519">
-        <v>111</v>
-      </c>
-      <c r="B33" t="s" s="520">
-        <v>112</v>
-      </c>
-      <c r="E33" t="s" s="521">
-        <v>113</v>
-      </c>
-      <c r="F33" t="s" s="522">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="523"/>
-      <c r="B34" t="s" s="524">
-        <v>115</v>
-      </c>
-      <c r="E34" t="s" s="525">
-        <v>116</v>
-      </c>
-      <c r="F34" t="s" s="526">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="527"/>
-      <c r="B35" t="s" s="528">
-        <v>117</v>
-      </c>
-      <c r="C35" s="529"/>
-      <c r="D35" s="530"/>
-      <c r="E35" t="s" s="531">
-        <v>118</v>
-      </c>
-      <c r="F35" t="s" s="532">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A36:F36"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4511,463 +4581,468 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="533">
+      <c r="A1" t="s" s="541">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="534">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="535">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="536">
-        <v>119</v>
-      </c>
-      <c r="E1" t="s" s="537">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="538">
-        <v>120</v>
+      <c r="B1" t="s" s="542">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="543">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="544">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s" s="545">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="546">
+        <v>125</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="539">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="540">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="541">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="542">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="543">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="544">
+      <c r="A2" t="s" s="547">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="548">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="549">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="550">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="551">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="552">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="545">
+      <c r="A3" t="s" s="553">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="546">
+      <c r="B3" t="s" s="554">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="547">
+      <c r="C3" t="s" s="555">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="548">
+      <c r="D3" t="s" s="556">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="549">
+      <c r="E3" t="s" s="557">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="550">
+      <c r="F3" t="s" s="558">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="551">
-        <v>121</v>
-      </c>
-      <c r="B4" t="s" s="552">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="553">
+      <c r="A4" t="s" s="559">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s" s="560">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="561">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="554">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="555">
-        <v>122</v>
-      </c>
-      <c r="F4" t="s" s="556">
+      <c r="D4" t="s" s="562">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="563">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s" s="564">
         <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="557">
+      <c r="A5" t="s" s="565">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s" s="566">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="567">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="568">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="569">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="570">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="571">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s" s="572">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="573">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="574">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s" s="575">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="576">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="577">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s" s="578">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s" s="579">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="580">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s" s="581">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s" s="582">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="583">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s" s="584">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="585">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s" s="586">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s" s="587">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s" s="588">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="589">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s" s="590">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="591">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="592">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s" s="593">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="594">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="595">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s" s="596">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="597">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s" s="598">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s" s="599">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s" s="600">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="601">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s" s="602">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s" s="603">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s" s="604">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s" s="605">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s" s="606">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="607">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s" s="608">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s" s="609">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="610">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s" s="611">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s" s="612">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="613">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s" s="614">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="615">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s" s="616">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s" s="617">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s" s="618">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="619">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s" s="620">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s" s="621">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="622">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s" s="623">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s" s="624">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="625">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s" s="626">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="627">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s" s="628">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s" s="629">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="630">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="631">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s" s="632">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="633">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s" s="634">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s" s="635">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s" s="636">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="637">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s" s="638">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s" s="639">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s" s="640">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s" s="641">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s" s="642">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="643">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s" s="644">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s" s="645">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s" s="646">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s" s="647">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s" s="648">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="649">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s" s="650">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="651">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s" s="652">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s" s="653">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="654">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="655">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s" s="656">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="657">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s" s="658">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s" s="659">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s" s="660">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="661">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s" s="662">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s" s="663">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s" s="664">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s" s="665">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s" s="666">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="667">
+        <v>148</v>
+      </c>
+      <c r="B22" t="s" s="668">
+        <v>149</v>
+      </c>
+      <c r="E22" t="s" s="669">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s" s="670">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="671"/>
+      <c r="B23" t="s" s="672">
+        <v>152</v>
+      </c>
+      <c r="E23" t="s" s="673">
+        <v>153</v>
+      </c>
+      <c r="F23" t="s" s="674">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="675"/>
+      <c r="B24" t="s" s="676">
+        <v>154</v>
+      </c>
+      <c r="C24" s="677"/>
+      <c r="D24" s="678"/>
+      <c r="E24" t="s" s="679">
         <v>123</v>
       </c>
-      <c r="B5" t="s" s="558">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="559">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="560">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s" s="561">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s" s="562">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="563">
-        <v>124</v>
-      </c>
-      <c r="B6" t="s" s="564">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s" s="565">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="566">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s" s="567">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s" s="568">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="569">
-        <v>125</v>
-      </c>
-      <c r="B7" t="s" s="570">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s" s="571">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s" s="572">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s" s="573">
-        <v>126</v>
-      </c>
-      <c r="F7" t="s" s="574">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="575">
-        <v>127</v>
-      </c>
-      <c r="B8" t="s" s="576">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s" s="577">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s" s="578">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s" s="579">
-        <v>128</v>
-      </c>
-      <c r="F8" t="s" s="580">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="581">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s" s="582">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s" s="583">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s" s="584">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s" s="585">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s" s="586">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="587">
-        <v>131</v>
-      </c>
-      <c r="B10" t="s" s="588">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s" s="589">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s" s="590">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s" s="591">
-        <v>132</v>
-      </c>
-      <c r="F10" t="s" s="592">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="593">
-        <v>133</v>
-      </c>
-      <c r="B11" t="s" s="594">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s" s="595">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s" s="596">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s" s="597">
-        <v>134</v>
-      </c>
-      <c r="F11" t="s" s="598">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="599">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s" s="600">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s" s="601">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s" s="602">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s" s="603">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s" s="604">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="605">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s" s="606">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s" s="607">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s" s="608">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s" s="609">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s" s="610">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="611">
-        <v>135</v>
-      </c>
-      <c r="B14" t="s" s="612">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s" s="613">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s" s="614">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s" s="615">
-        <v>136</v>
-      </c>
-      <c r="F14" t="s" s="616">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="617">
-        <v>137</v>
-      </c>
-      <c r="B15" t="s" s="618">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s" s="619">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s" s="620">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s" s="621">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="622">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="623">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s" s="624">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s" s="625">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s" s="626">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s" s="627">
-        <v>138</v>
-      </c>
-      <c r="F16" t="s" s="628">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="629">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s" s="630">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s" s="631">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s" s="632">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s" s="633">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s" s="634">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="635">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s" s="636">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s" s="637">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s" s="638">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s" s="639">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s" s="640">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="641">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s" s="642">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s" s="643">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s" s="644">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s" s="645">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s" s="646">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="647">
-        <v>140</v>
-      </c>
-      <c r="B20" t="s" s="648">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s" s="649">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s" s="650">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s" s="651">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s" s="652">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="653">
-        <v>141</v>
-      </c>
-      <c r="B21" t="s" s="654">
-        <v>142</v>
-      </c>
-      <c r="C21" t="s" s="655">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s" s="656">
-        <v>142</v>
-      </c>
-      <c r="E21" t="s" s="657">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s" s="658">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="659">
-        <v>144</v>
-      </c>
-      <c r="B22" t="s" s="660">
-        <v>145</v>
-      </c>
-      <c r="E22" t="s" s="661">
-        <v>146</v>
-      </c>
-      <c r="F22" t="s" s="662">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="663"/>
-      <c r="B23" t="s" s="664">
-        <v>148</v>
-      </c>
-      <c r="E23" t="s" s="665">
-        <v>116</v>
-      </c>
-      <c r="F23" t="s" s="666">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="667"/>
-      <c r="B24" t="s" s="668">
-        <v>117</v>
-      </c>
-      <c r="C24" s="669"/>
-      <c r="D24" s="670"/>
-      <c r="E24" t="s" s="671">
-        <v>118</v>
-      </c>
-      <c r="F24" t="s" s="672">
-        <v>84</v>
+      <c r="F24" t="s" s="680">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="681">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4977,6 +5052,7 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
